--- a/GenerateApp/tables_long_horiz/Data/8/source.xlsx
+++ b/GenerateApp/tables_long_horiz/Data/8/source.xlsx
@@ -14,99 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>November 2009</t>
-  </si>
-  <si>
-    <t>December 2009</t>
-  </si>
-  <si>
-    <t>January 2010</t>
-  </si>
-  <si>
-    <t>February 2010</t>
-  </si>
-  <si>
-    <t>March 2010</t>
-  </si>
-  <si>
-    <t>April 2010</t>
-  </si>
-  <si>
-    <t>May 2010</t>
-  </si>
-  <si>
-    <t>June 2010</t>
-  </si>
-  <si>
-    <t>July 2010</t>
-  </si>
-  <si>
-    <t>August 2010</t>
-  </si>
-  <si>
-    <t>September 2010</t>
-  </si>
-  <si>
-    <t>October 2010</t>
-  </si>
-  <si>
-    <t>November 2010</t>
-  </si>
-  <si>
-    <t>December 2010</t>
-  </si>
-  <si>
-    <t>January 2011</t>
-  </si>
-  <si>
-    <t>February 2011</t>
-  </si>
-  <si>
-    <t>March 2011</t>
-  </si>
-  <si>
-    <t>April 2011</t>
-  </si>
-  <si>
-    <t>May 2011</t>
-  </si>
-  <si>
-    <t>June 2011</t>
-  </si>
-  <si>
-    <t>July 2011</t>
-  </si>
-  <si>
-    <t>August 2011</t>
-  </si>
-  <si>
-    <t>September 2011</t>
-  </si>
-  <si>
-    <t>October 2011</t>
-  </si>
-  <si>
-    <t>November 2011</t>
-  </si>
-  <si>
-    <t>December 2011</t>
-  </si>
-  <si>
-    <t>January 2012</t>
-  </si>
-  <si>
-    <t>February 2012</t>
-  </si>
-  <si>
-    <t>March 2012</t>
-  </si>
-  <si>
-    <t>April 2012</t>
-  </si>
-  <si>
-    <t>May 2012</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t>November 2018</t>
+  </si>
+  <si>
+    <t>December 2018</t>
+  </si>
+  <si>
+    <t>January 2019</t>
   </si>
 </sst>
 </file>
@@ -167,208 +110,94 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="800000"/>
+              <a:srgbClr val="FF00FF"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$31</c:f>
+              <c:f>Sheet1!$A$1:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>November 2009</c:v>
+                  <c:v>February 2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>December 2009</c:v>
+                  <c:v>March 2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>January 2010</c:v>
+                  <c:v>April 2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>February 2010</c:v>
+                  <c:v>May 2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>March 2010</c:v>
+                  <c:v>June 2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>April 2010</c:v>
+                  <c:v>July 2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>May 2010</c:v>
+                  <c:v>August 2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>June 2010</c:v>
+                  <c:v>September 2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>July 2010</c:v>
+                  <c:v>October 2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>August 2010</c:v>
+                  <c:v>November 2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>September 2010</c:v>
+                  <c:v>December 2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>October 2010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>November 2010</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>December 2010</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>January 2011</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>February 2011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>March 2011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>April 2011</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>May 2011</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>June 2011</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>July 2011</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>August 2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>September 2011</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>October 2011</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>November 2011</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>December 2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>January 2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>February 2012</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>March 2012</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>April 2012</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>May 2012</c:v>
+                  <c:v>January 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$31</c:f>
+              <c:f>Sheet1!$B$1:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>652</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>804</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>627</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>461</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>819</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>599</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>826</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>870</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>556</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>357</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>684</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>819</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>751</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>622</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,11 +214,13 @@
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-5400000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="975" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -442,10 +273,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -752,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>652</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -771,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>804</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -779,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>627</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -787,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>461</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -795,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>819</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -803,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>599</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -811,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>641</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -819,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>826</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -827,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>870</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -835,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>556</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -843,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>357</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -851,159 +682,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>622</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
